--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Cd44-Sele.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Cd44-Sele.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.45505566666667</v>
+        <v>43.70915533333334</v>
       </c>
       <c r="H2">
-        <v>31.365167</v>
+        <v>131.127466</v>
       </c>
       <c r="I2">
-        <v>0.008202258778219226</v>
+        <v>0.0248563228721197</v>
       </c>
       <c r="J2">
-        <v>0.008202258778219226</v>
+        <v>0.02485632287211969</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.692291666666666</v>
+        <v>7.471958000000001</v>
       </c>
       <c r="N2">
-        <v>26.076875</v>
+        <v>22.415874</v>
       </c>
       <c r="O2">
-        <v>0.7904374164682153</v>
+        <v>0.7493826233921622</v>
       </c>
       <c r="P2">
-        <v>0.7904374164682153</v>
+        <v>0.7493826233921622</v>
       </c>
       <c r="Q2">
-        <v>90.87839324590277</v>
+        <v>326.5929728661427</v>
       </c>
       <c r="R2">
-        <v>817.9055392131249</v>
+        <v>2939.336755795284</v>
       </c>
       <c r="S2">
-        <v>0.006483372237859344</v>
+        <v>0.01862689644179166</v>
       </c>
       <c r="T2">
-        <v>0.006483372237859344</v>
+        <v>0.01862689644179166</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.45505566666667</v>
+        <v>43.70915533333334</v>
       </c>
       <c r="H3">
-        <v>31.365167</v>
+        <v>131.127466</v>
       </c>
       <c r="I3">
-        <v>0.008202258778219226</v>
+        <v>0.0248563228721197</v>
       </c>
       <c r="J3">
-        <v>0.008202258778219226</v>
+        <v>0.02485632287211969</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -629,22 +629,22 @@
         <v>0.376338</v>
       </c>
       <c r="O3">
-        <v>0.01140748791558863</v>
+        <v>0.01258131437222388</v>
       </c>
       <c r="P3">
-        <v>0.01140748791558863</v>
+        <v>0.01258131437222388</v>
       </c>
       <c r="Q3">
-        <v>1.311544913160666</v>
+        <v>5.483138699945334</v>
       </c>
       <c r="R3">
-        <v>11.803904218446</v>
+        <v>49.348248299508</v>
       </c>
       <c r="S3">
-        <v>9.356716789306655E-05</v>
+        <v>0.0003127252121916366</v>
       </c>
       <c r="T3">
-        <v>9.356716789306655E-05</v>
+        <v>0.0003127252121916366</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.45505566666667</v>
+        <v>43.70915533333334</v>
       </c>
       <c r="H4">
-        <v>31.365167</v>
+        <v>131.127466</v>
       </c>
       <c r="I4">
-        <v>0.008202258778219226</v>
+        <v>0.0248563228721197</v>
       </c>
       <c r="J4">
-        <v>0.008202258778219226</v>
+        <v>0.02485632287211969</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.09408700000000002</v>
+        <v>0.148662</v>
       </c>
       <c r="N4">
-        <v>0.282261</v>
+        <v>0.445986</v>
       </c>
       <c r="O4">
-        <v>0.00855584327530561</v>
+        <v>0.01490970901585978</v>
       </c>
       <c r="P4">
-        <v>0.008555843275305609</v>
+        <v>0.01490970901585978</v>
       </c>
       <c r="Q4">
-        <v>0.9836848225096668</v>
+        <v>6.497890450163999</v>
       </c>
       <c r="R4">
-        <v>8.853163402587001</v>
+        <v>58.481014051476</v>
       </c>
       <c r="S4">
-        <v>7.017724060994338E-05</v>
+        <v>0.0003706005412275647</v>
       </c>
       <c r="T4">
-        <v>7.017724060994336E-05</v>
+        <v>0.0003706005412275647</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,46 +729,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>10.45505566666667</v>
+        <v>43.70915533333334</v>
       </c>
       <c r="H5">
-        <v>31.365167</v>
+        <v>131.127466</v>
       </c>
       <c r="I5">
-        <v>0.008202258778219226</v>
+        <v>0.0248563228721197</v>
       </c>
       <c r="J5">
-        <v>0.008202258778219226</v>
+        <v>0.02485632287211969</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.04400233333333333</v>
+        <v>0.01595966666666667</v>
       </c>
       <c r="N5">
-        <v>0.132007</v>
+        <v>0.047879</v>
       </c>
       <c r="O5">
-        <v>0.004001371791509515</v>
+        <v>0.001600637593938712</v>
       </c>
       <c r="P5">
-        <v>0.004001371791509515</v>
+        <v>0.001600637593938712</v>
       </c>
       <c r="Q5">
-        <v>0.4600468444632222</v>
+        <v>0.6975835494015556</v>
       </c>
       <c r="R5">
-        <v>4.140421600169</v>
+        <v>6.278251944613999</v>
       </c>
       <c r="S5">
-        <v>3.282028690182771E-05</v>
+        <v>3.978596483619345E-05</v>
       </c>
       <c r="T5">
-        <v>3.282028690182771E-05</v>
+        <v>3.978596483619344E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>10.45505566666667</v>
+        <v>43.70915533333334</v>
       </c>
       <c r="H6">
-        <v>31.365167</v>
+        <v>131.127466</v>
       </c>
       <c r="I6">
-        <v>0.008202258778219226</v>
+        <v>0.0248563228721197</v>
       </c>
       <c r="J6">
-        <v>0.008202258778219226</v>
+        <v>0.02485632287211969</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,33 +809,33 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.040985</v>
+        <v>2.145887333333333</v>
       </c>
       <c r="N6">
-        <v>6.122955</v>
+        <v>6.437662</v>
       </c>
       <c r="O6">
-        <v>0.1855978805493811</v>
+        <v>0.2152167717427406</v>
       </c>
       <c r="P6">
-        <v>0.1855978805493811</v>
+        <v>0.2152167717427406</v>
       </c>
       <c r="Q6">
-        <v>21.33861178983167</v>
+        <v>93.79492278049911</v>
       </c>
       <c r="R6">
-        <v>192.047506108485</v>
+        <v>844.1543050244919</v>
       </c>
       <c r="S6">
-        <v>0.001522321844955044</v>
+        <v>0.005349497565932847</v>
       </c>
       <c r="T6">
-        <v>0.001522321844955044</v>
+        <v>0.005349497565932847</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,46 +853,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>167.4277343333333</v>
+        <v>43.70915533333334</v>
       </c>
       <c r="H7">
-        <v>502.283203</v>
+        <v>131.127466</v>
       </c>
       <c r="I7">
-        <v>0.1313513430666197</v>
+        <v>0.0248563228721197</v>
       </c>
       <c r="J7">
-        <v>0.1313513430666197</v>
+        <v>0.02485632287211969</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>8.692291666666666</v>
+        <v>0.06290533333333333</v>
       </c>
       <c r="N7">
-        <v>26.076875</v>
+        <v>0.188716</v>
       </c>
       <c r="O7">
-        <v>0.7904374164682153</v>
+        <v>0.006308943883074792</v>
       </c>
       <c r="P7">
-        <v>0.7904374164682153</v>
+        <v>0.006308943883074792</v>
       </c>
       <c r="Q7">
-        <v>1455.330699914514</v>
+        <v>2.749538985961778</v>
       </c>
       <c r="R7">
-        <v>13097.97629923062</v>
+        <v>24.745850873656</v>
       </c>
       <c r="S7">
-        <v>0.1038250162632091</v>
+        <v>0.0001568171461397916</v>
       </c>
       <c r="T7">
-        <v>0.1038250162632091</v>
+        <v>0.0001568171461397916</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -921,40 +921,40 @@
         <v>502.283203</v>
       </c>
       <c r="I8">
-        <v>0.1313513430666197</v>
+        <v>0.09521203945945574</v>
       </c>
       <c r="J8">
-        <v>0.1313513430666197</v>
+        <v>0.09521203945945574</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.125446</v>
+        <v>7.471958000000001</v>
       </c>
       <c r="N8">
-        <v>0.376338</v>
+        <v>22.415874</v>
       </c>
       <c r="O8">
-        <v>0.01140748791558863</v>
+        <v>0.7493826233921622</v>
       </c>
       <c r="P8">
-        <v>0.01140748791558863</v>
+        <v>0.7493826233921622</v>
       </c>
       <c r="Q8">
-        <v>21.00313956117933</v>
+        <v>1251.012998973825</v>
       </c>
       <c r="R8">
-        <v>189.028256050614</v>
+        <v>11259.11699076442</v>
       </c>
       <c r="S8">
-        <v>0.0014983888587288</v>
+        <v>0.07135024790864501</v>
       </c>
       <c r="T8">
-        <v>0.0014983888587288</v>
+        <v>0.07135024790864501</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -983,40 +983,40 @@
         <v>502.283203</v>
       </c>
       <c r="I9">
-        <v>0.1313513430666197</v>
+        <v>0.09521203945945574</v>
       </c>
       <c r="J9">
-        <v>0.1313513430666197</v>
+        <v>0.09521203945945574</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.09408700000000002</v>
+        <v>0.125446</v>
       </c>
       <c r="N9">
-        <v>0.282261</v>
+        <v>0.376338</v>
       </c>
       <c r="O9">
-        <v>0.00855584327530561</v>
+        <v>0.01258131437222388</v>
       </c>
       <c r="P9">
-        <v>0.008555843275305609</v>
+        <v>0.01258131437222388</v>
       </c>
       <c r="Q9">
-        <v>15.75277324022034</v>
+        <v>21.00313956117934</v>
       </c>
       <c r="R9">
-        <v>141.774959161983</v>
+        <v>189.028256050614</v>
       </c>
       <c r="S9">
-        <v>0.001123821505278898</v>
+        <v>0.001197892600459997</v>
       </c>
       <c r="T9">
-        <v>0.001123821505278898</v>
+        <v>0.001197892600459997</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,10 +1045,10 @@
         <v>502.283203</v>
       </c>
       <c r="I10">
-        <v>0.1313513430666197</v>
+        <v>0.09521203945945574</v>
       </c>
       <c r="J10">
-        <v>0.1313513430666197</v>
+        <v>0.09521203945945574</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1057,28 +1057,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.04400233333333333</v>
+        <v>0.148662</v>
       </c>
       <c r="N10">
-        <v>0.132007</v>
+        <v>0.445986</v>
       </c>
       <c r="O10">
-        <v>0.004001371791509515</v>
+        <v>0.01490970901585978</v>
       </c>
       <c r="P10">
-        <v>0.004001371791509515</v>
+        <v>0.01490970901585978</v>
       </c>
       <c r="Q10">
-        <v>7.367210975380111</v>
+        <v>24.890141841462</v>
       </c>
       <c r="R10">
-        <v>66.30489877842099</v>
+        <v>224.011276573158</v>
       </c>
       <c r="S10">
-        <v>0.0005255855589236611</v>
+        <v>0.001419583803147044</v>
       </c>
       <c r="T10">
-        <v>0.0005255855589236611</v>
+        <v>0.001419583803147044</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,7 +1092,7 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1107,45 +1107,45 @@
         <v>502.283203</v>
       </c>
       <c r="I11">
-        <v>0.1313513430666197</v>
+        <v>0.09521203945945574</v>
       </c>
       <c r="J11">
-        <v>0.1313513430666197</v>
+        <v>0.09521203945945574</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>2.040985</v>
+        <v>0.01595966666666667</v>
       </c>
       <c r="N11">
-        <v>6.122955</v>
+        <v>0.047879</v>
       </c>
       <c r="O11">
-        <v>0.1855978805493811</v>
+        <v>0.001600637593938712</v>
       </c>
       <c r="P11">
-        <v>0.1855978805493811</v>
+        <v>0.001600637593938712</v>
       </c>
       <c r="Q11">
-        <v>341.7174943583184</v>
+        <v>2.672090830715223</v>
       </c>
       <c r="R11">
-        <v>3075.457449224865</v>
+        <v>24.048817476437</v>
       </c>
       <c r="S11">
-        <v>0.02437853088047926</v>
+        <v>0.0001523999697543809</v>
       </c>
       <c r="T11">
-        <v>0.02437853088047926</v>
+        <v>0.0001523999697543809</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,7 +1154,7 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>227.495678</v>
+        <v>167.4277343333333</v>
       </c>
       <c r="H12">
-        <v>682.4870339999999</v>
+        <v>502.283203</v>
       </c>
       <c r="I12">
-        <v>0.1784761823728629</v>
+        <v>0.09521203945945574</v>
       </c>
       <c r="J12">
-        <v>0.1784761823728629</v>
+        <v>0.09521203945945574</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,33 +1181,33 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>8.692291666666666</v>
+        <v>2.145887333333333</v>
       </c>
       <c r="N12">
-        <v>26.076875</v>
+        <v>6.437662</v>
       </c>
       <c r="O12">
-        <v>0.7904374164682153</v>
+        <v>0.2152167717427406</v>
       </c>
       <c r="P12">
-        <v>0.7904374164682153</v>
+        <v>0.2152167717427406</v>
       </c>
       <c r="Q12">
-        <v>1977.458786082083</v>
+        <v>359.2810543545984</v>
       </c>
       <c r="R12">
-        <v>17797.12907473875</v>
+        <v>3233.529489191386</v>
       </c>
       <c r="S12">
-        <v>0.1410742524959158</v>
+        <v>0.02049122776350649</v>
       </c>
       <c r="T12">
-        <v>0.1410742524959158</v>
+        <v>0.02049122776350649</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,7 +1216,7 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1225,46 +1225,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>227.495678</v>
+        <v>167.4277343333333</v>
       </c>
       <c r="H13">
-        <v>682.4870339999999</v>
+        <v>502.283203</v>
       </c>
       <c r="I13">
-        <v>0.1784761823728629</v>
+        <v>0.09521203945945574</v>
       </c>
       <c r="J13">
-        <v>0.1784761823728629</v>
+        <v>0.09521203945945574</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.125446</v>
+        <v>0.06290533333333333</v>
       </c>
       <c r="N13">
-        <v>0.376338</v>
+        <v>0.188716</v>
       </c>
       <c r="O13">
-        <v>0.01140748791558863</v>
+        <v>0.006308943883074792</v>
       </c>
       <c r="P13">
-        <v>0.01140748791558863</v>
+        <v>0.006308943883074792</v>
       </c>
       <c r="Q13">
-        <v>28.53842282238799</v>
+        <v>10.53209743748311</v>
       </c>
       <c r="R13">
-        <v>256.8458054014919</v>
+        <v>94.78887693734799</v>
       </c>
       <c r="S13">
-        <v>0.002035964893638826</v>
+        <v>0.000600687413942809</v>
       </c>
       <c r="T13">
-        <v>0.002035964893638826</v>
+        <v>0.000600687413942809</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,7 +1278,7 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1287,46 +1287,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>227.495678</v>
+        <v>456.387034</v>
       </c>
       <c r="H14">
-        <v>682.4870339999999</v>
+        <v>1369.161102</v>
       </c>
       <c r="I14">
-        <v>0.1784761823728629</v>
+        <v>0.259536094560534</v>
       </c>
       <c r="J14">
-        <v>0.1784761823728629</v>
+        <v>0.259536094560534</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.09408700000000002</v>
+        <v>7.471958000000001</v>
       </c>
       <c r="N14">
-        <v>0.282261</v>
+        <v>22.415874</v>
       </c>
       <c r="O14">
-        <v>0.00855584327530561</v>
+        <v>0.7493826233921622</v>
       </c>
       <c r="P14">
-        <v>0.008555843275305609</v>
+        <v>0.7493826233921622</v>
       </c>
       <c r="Q14">
-        <v>21.404385855986</v>
+        <v>3410.104749792572</v>
       </c>
       <c r="R14">
-        <v>192.639472703874</v>
+        <v>30690.94274813315</v>
       </c>
       <c r="S14">
-        <v>0.001527014244757077</v>
+        <v>0.1944918394067293</v>
       </c>
       <c r="T14">
-        <v>0.001527014244757077</v>
+        <v>0.1944918394067293</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,7 +1340,7 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>227.495678</v>
+        <v>456.387034</v>
       </c>
       <c r="H15">
-        <v>682.4870339999999</v>
+        <v>1369.161102</v>
       </c>
       <c r="I15">
-        <v>0.1784761823728629</v>
+        <v>0.259536094560534</v>
       </c>
       <c r="J15">
-        <v>0.1784761823728629</v>
+        <v>0.259536094560534</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1367,28 +1367,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M15">
-        <v>0.04400233333333333</v>
+        <v>0.125446</v>
       </c>
       <c r="N15">
-        <v>0.132007</v>
+        <v>0.376338</v>
       </c>
       <c r="O15">
-        <v>0.004001371791509515</v>
+        <v>0.01258131437222388</v>
       </c>
       <c r="P15">
-        <v>0.004001371791509515</v>
+        <v>0.01258131437222388</v>
       </c>
       <c r="Q15">
-        <v>10.01034065524867</v>
+        <v>57.25192786716401</v>
       </c>
       <c r="R15">
-        <v>90.09306589723798</v>
+        <v>515.267350804476</v>
       </c>
       <c r="S15">
-        <v>0.0007141495616030814</v>
+        <v>0.003265305196605302</v>
       </c>
       <c r="T15">
-        <v>0.0007141495616030814</v>
+        <v>0.003265305196605302</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,7 +1402,7 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1411,61 +1411,61 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>227.495678</v>
+        <v>456.387034</v>
       </c>
       <c r="H16">
-        <v>682.4870339999999</v>
+        <v>1369.161102</v>
       </c>
       <c r="I16">
-        <v>0.1784761823728629</v>
+        <v>0.259536094560534</v>
       </c>
       <c r="J16">
-        <v>0.1784761823728629</v>
+        <v>0.259536094560534</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>2.040985</v>
+        <v>0.148662</v>
       </c>
       <c r="N16">
-        <v>6.122955</v>
+        <v>0.445986</v>
       </c>
       <c r="O16">
-        <v>0.1855978805493811</v>
+        <v>0.01490970901585978</v>
       </c>
       <c r="P16">
-        <v>0.1855978805493811</v>
+        <v>0.01490970901585978</v>
       </c>
       <c r="Q16">
-        <v>464.31526636283</v>
+        <v>67.847409248508</v>
       </c>
       <c r="R16">
-        <v>4178.837397265469</v>
+        <v>610.626683236572</v>
       </c>
       <c r="S16">
-        <v>0.03312480117694816</v>
+        <v>0.00386960764901023</v>
       </c>
       <c r="T16">
-        <v>0.03312480117694816</v>
+        <v>0.00386960764901023</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
       <c r="E17">
         <v>3</v>
       </c>
@@ -1473,51 +1473,51 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>55.51027300000001</v>
+        <v>456.387034</v>
       </c>
       <c r="H17">
-        <v>166.530819</v>
+        <v>1369.161102</v>
       </c>
       <c r="I17">
-        <v>0.04354923001005501</v>
+        <v>0.259536094560534</v>
       </c>
       <c r="J17">
-        <v>0.04354923001005501</v>
+        <v>0.259536094560534</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>8.692291666666666</v>
+        <v>0.01595966666666667</v>
       </c>
       <c r="N17">
-        <v>26.076875</v>
+        <v>0.047879</v>
       </c>
       <c r="O17">
-        <v>0.7904374164682153</v>
+        <v>0.001600637593938712</v>
       </c>
       <c r="P17">
-        <v>0.7904374164682153</v>
+        <v>0.001600637593938712</v>
       </c>
       <c r="Q17">
-        <v>482.5114834122917</v>
+        <v>7.283784933628668</v>
       </c>
       <c r="R17">
-        <v>4342.603350710625</v>
+        <v>65.554064402658</v>
       </c>
       <c r="S17">
-        <v>0.03442294085832796</v>
+        <v>0.0004154232299376232</v>
       </c>
       <c r="T17">
-        <v>0.03442294085832795</v>
+        <v>0.0004154232299376232</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,7 +1526,7 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E18">
         <v>3</v>
@@ -1535,51 +1535,51 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>55.51027300000001</v>
+        <v>456.387034</v>
       </c>
       <c r="H18">
-        <v>166.530819</v>
+        <v>1369.161102</v>
       </c>
       <c r="I18">
-        <v>0.04354923001005501</v>
+        <v>0.259536094560534</v>
       </c>
       <c r="J18">
-        <v>0.04354923001005501</v>
+        <v>0.259536094560534</v>
       </c>
       <c r="K18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>0.125446</v>
+        <v>2.145887333333333</v>
       </c>
       <c r="N18">
-        <v>0.376338</v>
+        <v>6.437662</v>
       </c>
       <c r="O18">
-        <v>0.01140748791558863</v>
+        <v>0.2152167717427406</v>
       </c>
       <c r="P18">
-        <v>0.01140748791558863</v>
+        <v>0.2152167717427406</v>
       </c>
       <c r="Q18">
-        <v>6.963541706757999</v>
+        <v>979.3551553581692</v>
       </c>
       <c r="R18">
-        <v>62.67187536082199</v>
+        <v>8814.196398223523</v>
       </c>
       <c r="S18">
-        <v>0.0004967873150728921</v>
+        <v>0.05585652042203678</v>
       </c>
       <c r="T18">
-        <v>0.0004967873150728921</v>
+        <v>0.05585652042203679</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,7 +1588,7 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E19">
         <v>3</v>
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>55.51027300000001</v>
+        <v>456.387034</v>
       </c>
       <c r="H19">
-        <v>166.530819</v>
+        <v>1369.161102</v>
       </c>
       <c r="I19">
-        <v>0.04354923001005501</v>
+        <v>0.259536094560534</v>
       </c>
       <c r="J19">
-        <v>0.04354923001005501</v>
+        <v>0.259536094560534</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -1615,28 +1615,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>0.09408700000000002</v>
+        <v>0.06290533333333333</v>
       </c>
       <c r="N19">
-        <v>0.282261</v>
+        <v>0.188716</v>
       </c>
       <c r="O19">
-        <v>0.00855584327530561</v>
+        <v>0.006308943883074792</v>
       </c>
       <c r="P19">
-        <v>0.008555843275305609</v>
+        <v>0.006308943883074792</v>
       </c>
       <c r="Q19">
-        <v>5.222795055751002</v>
+        <v>28.70917850278133</v>
       </c>
       <c r="R19">
-        <v>47.00515550175901</v>
+        <v>258.382606525032</v>
       </c>
       <c r="S19">
-        <v>0.0003726003867262665</v>
+        <v>0.001637398656214802</v>
       </c>
       <c r="T19">
-        <v>0.0003726003867262664</v>
+        <v>0.001637398656214802</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,7 +1650,7 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E20">
         <v>3</v>
@@ -1659,46 +1659,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>55.51027300000001</v>
+        <v>113.6484576666667</v>
       </c>
       <c r="H20">
-        <v>166.530819</v>
+        <v>340.945373</v>
       </c>
       <c r="I20">
-        <v>0.04354923001005501</v>
+        <v>0.06462908596924523</v>
       </c>
       <c r="J20">
-        <v>0.04354923001005501</v>
+        <v>0.06462908596924523</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L20">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>0.04400233333333333</v>
+        <v>7.471958000000001</v>
       </c>
       <c r="N20">
-        <v>0.132007</v>
+        <v>22.415874</v>
       </c>
       <c r="O20">
-        <v>0.004001371791509515</v>
+        <v>0.7493826233921622</v>
       </c>
       <c r="P20">
-        <v>0.004001371791509515</v>
+        <v>0.7493826233921622</v>
       </c>
       <c r="Q20">
-        <v>2.442581535970334</v>
+        <v>849.1765024501115</v>
       </c>
       <c r="R20">
-        <v>21.983233823733</v>
+        <v>7642.588522051004</v>
       </c>
       <c r="S20">
-        <v>0.0001742566605041938</v>
+        <v>0.04843191399107057</v>
       </c>
       <c r="T20">
-        <v>0.0001742566605041937</v>
+        <v>0.04843191399107057</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,7 +1712,7 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E21">
         <v>3</v>
@@ -1721,51 +1721,51 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>55.51027300000001</v>
+        <v>113.6484576666667</v>
       </c>
       <c r="H21">
-        <v>166.530819</v>
+        <v>340.945373</v>
       </c>
       <c r="I21">
-        <v>0.04354923001005501</v>
+        <v>0.06462908596924523</v>
       </c>
       <c r="J21">
-        <v>0.04354923001005501</v>
+        <v>0.06462908596924523</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M21">
-        <v>2.040985</v>
+        <v>0.125446</v>
       </c>
       <c r="N21">
-        <v>6.122955</v>
+        <v>0.376338</v>
       </c>
       <c r="O21">
-        <v>0.1855978805493811</v>
+        <v>0.01258131437222388</v>
       </c>
       <c r="P21">
-        <v>0.1855978805493811</v>
+        <v>0.01258131437222388</v>
       </c>
       <c r="Q21">
-        <v>113.295634538905</v>
+        <v>14.25674442045267</v>
       </c>
       <c r="R21">
-        <v>1019.660710850145</v>
+        <v>128.310699784074</v>
       </c>
       <c r="S21">
-        <v>0.008082644789423712</v>
+        <v>0.0008131188481685576</v>
       </c>
       <c r="T21">
-        <v>0.00808264478942371</v>
+        <v>0.0008131188481685576</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,7 +1774,7 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E22">
         <v>3</v>
@@ -1783,51 +1783,51 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>665.7853396666667</v>
+        <v>113.6484576666667</v>
       </c>
       <c r="H22">
-        <v>1997.356019</v>
+        <v>340.945373</v>
       </c>
       <c r="I22">
-        <v>0.522325640417338</v>
+        <v>0.06462908596924523</v>
       </c>
       <c r="J22">
-        <v>0.522325640417338</v>
+        <v>0.06462908596924523</v>
       </c>
       <c r="K22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>8.692291666666666</v>
+        <v>0.148662</v>
       </c>
       <c r="N22">
-        <v>26.076875</v>
+        <v>0.445986</v>
       </c>
       <c r="O22">
-        <v>0.7904374164682153</v>
+        <v>0.01490970901585978</v>
       </c>
       <c r="P22">
-        <v>0.7904374164682153</v>
+        <v>0.01490970901585978</v>
       </c>
       <c r="Q22">
-        <v>5787.200359773403</v>
+        <v>16.895207013642</v>
       </c>
       <c r="R22">
-        <v>52084.80323796062</v>
+        <v>152.056863122778</v>
       </c>
       <c r="S22">
-        <v>0.4128657297665866</v>
+        <v>0.0009636008657624323</v>
       </c>
       <c r="T22">
-        <v>0.4128657297665866</v>
+        <v>0.0009636008657624325</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,7 +1836,7 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E23">
         <v>3</v>
@@ -1845,61 +1845,61 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>665.7853396666667</v>
+        <v>113.6484576666667</v>
       </c>
       <c r="H23">
-        <v>1997.356019</v>
+        <v>340.945373</v>
       </c>
       <c r="I23">
-        <v>0.522325640417338</v>
+        <v>0.06462908596924523</v>
       </c>
       <c r="J23">
-        <v>0.522325640417338</v>
+        <v>0.06462908596924523</v>
       </c>
       <c r="K23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L23">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M23">
-        <v>0.125446</v>
+        <v>0.01595966666666667</v>
       </c>
       <c r="N23">
-        <v>0.376338</v>
+        <v>0.047879</v>
       </c>
       <c r="O23">
-        <v>0.01140748791558863</v>
+        <v>0.001600637593938712</v>
       </c>
       <c r="P23">
-        <v>0.01140748791558863</v>
+        <v>0.001600637593938712</v>
       </c>
       <c r="Q23">
-        <v>83.52010771982465</v>
+        <v>1.813791501540778</v>
       </c>
       <c r="R23">
-        <v>751.680969478422</v>
+        <v>16.324123513867</v>
       </c>
       <c r="S23">
-        <v>0.005958423431062873</v>
+        <v>0.0001034477446642709</v>
       </c>
       <c r="T23">
-        <v>0.005958423431062873</v>
+        <v>0.0001034477446642709</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
       <c r="E24">
         <v>3</v>
       </c>
@@ -1907,51 +1907,51 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>665.7853396666667</v>
+        <v>113.6484576666667</v>
       </c>
       <c r="H24">
-        <v>1997.356019</v>
+        <v>340.945373</v>
       </c>
       <c r="I24">
-        <v>0.522325640417338</v>
+        <v>0.06462908596924523</v>
       </c>
       <c r="J24">
-        <v>0.522325640417338</v>
+        <v>0.06462908596924523</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M24">
-        <v>0.09408700000000002</v>
+        <v>2.145887333333333</v>
       </c>
       <c r="N24">
-        <v>0.282261</v>
+        <v>6.437662</v>
       </c>
       <c r="O24">
-        <v>0.00855584327530561</v>
+        <v>0.2152167717427406</v>
       </c>
       <c r="P24">
-        <v>0.008555843275305609</v>
+        <v>0.2152167717427406</v>
       </c>
       <c r="Q24">
-        <v>62.64174525321768</v>
+        <v>243.8767857597695</v>
       </c>
       <c r="R24">
-        <v>563.7757072789591</v>
+        <v>2194.891071837926</v>
       </c>
       <c r="S24">
-        <v>0.004468936318084377</v>
+        <v>0.01390926324298501</v>
       </c>
       <c r="T24">
-        <v>0.004468936318084376</v>
+        <v>0.01390926324298501</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1960,7 +1960,7 @@
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E25">
         <v>3</v>
@@ -1969,46 +1969,46 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>665.7853396666667</v>
+        <v>113.6484576666667</v>
       </c>
       <c r="H25">
-        <v>1997.356019</v>
+        <v>340.945373</v>
       </c>
       <c r="I25">
-        <v>0.522325640417338</v>
+        <v>0.06462908596924523</v>
       </c>
       <c r="J25">
-        <v>0.522325640417338</v>
+        <v>0.06462908596924523</v>
       </c>
       <c r="K25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L25">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M25">
-        <v>0.04400233333333333</v>
+        <v>0.06290533333333333</v>
       </c>
       <c r="N25">
-        <v>0.132007</v>
+        <v>0.188716</v>
       </c>
       <c r="O25">
-        <v>0.004001371791509515</v>
+        <v>0.006308943883074792</v>
       </c>
       <c r="P25">
-        <v>0.004001371791509515</v>
+        <v>0.006308943883074792</v>
       </c>
       <c r="Q25">
-        <v>29.29610844445922</v>
+        <v>7.149094112340888</v>
       </c>
       <c r="R25">
-        <v>263.664976000133</v>
+        <v>64.341847011068</v>
       </c>
       <c r="S25">
-        <v>0.002090019083548078</v>
+        <v>0.0004077412765943845</v>
       </c>
       <c r="T25">
-        <v>0.002090019083548078</v>
+        <v>0.0004077412765943845</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,7 +2022,7 @@
         <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E26">
         <v>3</v>
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>665.7853396666667</v>
+        <v>750.176575</v>
       </c>
       <c r="H26">
-        <v>1997.356019</v>
+        <v>2250.529725</v>
       </c>
       <c r="I26">
-        <v>0.522325640417338</v>
+        <v>0.4266069892474147</v>
       </c>
       <c r="J26">
-        <v>0.522325640417338</v>
+        <v>0.4266069892474147</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,33 +2049,33 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>2.040985</v>
+        <v>7.471958000000001</v>
       </c>
       <c r="N26">
-        <v>6.122955</v>
+        <v>22.415874</v>
       </c>
       <c r="O26">
-        <v>0.1855978805493811</v>
+        <v>0.7493826233921622</v>
       </c>
       <c r="P26">
-        <v>0.1855978805493811</v>
+        <v>0.7493826233921622</v>
       </c>
       <c r="Q26">
-        <v>1358.857891479572</v>
+        <v>5605.28786098385</v>
       </c>
       <c r="R26">
-        <v>12229.72102331615</v>
+        <v>50447.59074885465</v>
       </c>
       <c r="S26">
-        <v>0.09694253181805605</v>
+        <v>0.3196918647596596</v>
       </c>
       <c r="T26">
-        <v>0.09694253181805605</v>
+        <v>0.3196918647596596</v>
       </c>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
@@ -2084,7 +2084,7 @@
         <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E27">
         <v>3</v>
@@ -2093,51 +2093,51 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>147.9815903333333</v>
+        <v>750.176575</v>
       </c>
       <c r="H27">
-        <v>443.9447709999999</v>
+        <v>2250.529725</v>
       </c>
       <c r="I27">
-        <v>0.1160953453549051</v>
+        <v>0.4266069892474147</v>
       </c>
       <c r="J27">
-        <v>0.1160953453549051</v>
+        <v>0.4266069892474147</v>
       </c>
       <c r="K27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L27">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M27">
-        <v>8.692291666666666</v>
+        <v>0.125446</v>
       </c>
       <c r="N27">
-        <v>26.076875</v>
+        <v>0.376338</v>
       </c>
       <c r="O27">
-        <v>0.7904374164682153</v>
+        <v>0.01258131437222388</v>
       </c>
       <c r="P27">
-        <v>0.7904374164682153</v>
+        <v>0.01258131437222388</v>
       </c>
       <c r="Q27">
-        <v>1286.299144474514</v>
+        <v>94.10665062744999</v>
       </c>
       <c r="R27">
-        <v>11576.69230027062</v>
+        <v>846.9598556470499</v>
       </c>
       <c r="S27">
-        <v>0.09176610484631642</v>
+        <v>0.005367276645109656</v>
       </c>
       <c r="T27">
-        <v>0.09176610484631642</v>
+        <v>0.005367276645109656</v>
       </c>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
@@ -2146,7 +2146,7 @@
         <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E28">
         <v>3</v>
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>147.9815903333333</v>
+        <v>750.176575</v>
       </c>
       <c r="H28">
-        <v>443.9447709999999</v>
+        <v>2250.529725</v>
       </c>
       <c r="I28">
-        <v>0.1160953453549051</v>
+        <v>0.4266069892474147</v>
       </c>
       <c r="J28">
-        <v>0.1160953453549051</v>
+        <v>0.4266069892474147</v>
       </c>
       <c r="K28">
         <v>2</v>
@@ -2173,33 +2173,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M28">
-        <v>0.125446</v>
+        <v>0.148662</v>
       </c>
       <c r="N28">
-        <v>0.376338</v>
+        <v>0.445986</v>
       </c>
       <c r="O28">
-        <v>0.01140748791558863</v>
+        <v>0.01490970901585978</v>
       </c>
       <c r="P28">
-        <v>0.01140748791558863</v>
+        <v>0.01490970901585978</v>
       </c>
       <c r="Q28">
-        <v>18.56369858095533</v>
+        <v>111.52274999265</v>
       </c>
       <c r="R28">
-        <v>167.073287228598</v>
+        <v>1003.70474993385</v>
       </c>
       <c r="S28">
-        <v>0.001324356249192168</v>
+        <v>0.006360586073810975</v>
       </c>
       <c r="T28">
-        <v>0.001324356249192168</v>
+        <v>0.006360586073810976</v>
       </c>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
@@ -2208,7 +2208,7 @@
         <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E29">
         <v>3</v>
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>147.9815903333333</v>
+        <v>750.176575</v>
       </c>
       <c r="H29">
-        <v>443.9447709999999</v>
+        <v>2250.529725</v>
       </c>
       <c r="I29">
-        <v>0.1160953453549051</v>
+        <v>0.4266069892474147</v>
       </c>
       <c r="J29">
-        <v>0.1160953453549051</v>
+        <v>0.4266069892474147</v>
       </c>
       <c r="K29">
         <v>1</v>
@@ -2235,33 +2235,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M29">
-        <v>0.09408700000000002</v>
+        <v>0.01595966666666667</v>
       </c>
       <c r="N29">
-        <v>0.282261</v>
+        <v>0.047879</v>
       </c>
       <c r="O29">
-        <v>0.00855584327530561</v>
+        <v>0.001600637593938712</v>
       </c>
       <c r="P29">
-        <v>0.008555843275305609</v>
+        <v>0.001600637593938712</v>
       </c>
       <c r="Q29">
-        <v>13.92314388969233</v>
+        <v>11.97256807814167</v>
       </c>
       <c r="R29">
-        <v>125.308295007231</v>
+        <v>107.753112703275</v>
       </c>
       <c r="S29">
-        <v>0.0009932935798490474</v>
+        <v>0.0006828431848264199</v>
       </c>
       <c r="T29">
-        <v>0.0009932935798490472</v>
+        <v>0.0006828431848264199</v>
       </c>
     </row>
     <row r="30" spans="1:20">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B30" t="s">
         <v>26</v>
@@ -2270,7 +2270,7 @@
         <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E30">
         <v>3</v>
@@ -2279,108 +2279,480 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>147.9815903333333</v>
+        <v>750.176575</v>
       </c>
       <c r="H30">
-        <v>443.9447709999999</v>
+        <v>2250.529725</v>
       </c>
       <c r="I30">
-        <v>0.1160953453549051</v>
+        <v>0.4266069892474147</v>
       </c>
       <c r="J30">
-        <v>0.1160953453549051</v>
+        <v>0.4266069892474147</v>
       </c>
       <c r="K30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L30">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M30">
-        <v>0.04400233333333333</v>
+        <v>2.145887333333333</v>
       </c>
       <c r="N30">
-        <v>0.132007</v>
+        <v>6.437662</v>
       </c>
       <c r="O30">
-        <v>0.004001371791509515</v>
+        <v>0.2152167717427406</v>
       </c>
       <c r="P30">
-        <v>0.004001371791509515</v>
+        <v>0.2152167717427406</v>
       </c>
       <c r="Q30">
-        <v>6.51153526504411</v>
+        <v>1609.794410055883</v>
       </c>
       <c r="R30">
-        <v>58.60381738539699</v>
+        <v>14488.14969050295</v>
       </c>
       <c r="S30">
-        <v>0.0004645406400286726</v>
+        <v>0.09181297902871864</v>
       </c>
       <c r="T30">
-        <v>0.0004645406400286726</v>
+        <v>0.09181297902871866</v>
       </c>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="B31" t="s">
-        <v>26</v>
-      </c>
-      <c r="C31" t="s">
-        <v>27</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>750.176575</v>
+      </c>
+      <c r="H31">
+        <v>2250.529725</v>
+      </c>
+      <c r="I31">
+        <v>0.4266069892474147</v>
+      </c>
+      <c r="J31">
+        <v>0.4266069892474147</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M31">
+        <v>0.06290533333333333</v>
+      </c>
+      <c r="N31">
+        <v>0.188716</v>
+      </c>
+      <c r="O31">
+        <v>0.006308943883074792</v>
+      </c>
+      <c r="P31">
+        <v>0.006308943883074792</v>
+      </c>
+      <c r="Q31">
+        <v>47.19010750923333</v>
+      </c>
+      <c r="R31">
+        <v>424.7109675830999</v>
+      </c>
+      <c r="S31">
+        <v>0.002691439555289431</v>
+      </c>
+      <c r="T31">
+        <v>0.002691439555289431</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>227.123347</v>
+      </c>
+      <c r="H32">
+        <v>681.370041</v>
+      </c>
+      <c r="I32">
+        <v>0.1291594678912306</v>
+      </c>
+      <c r="J32">
+        <v>0.1291594678912306</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>7.471958000000001</v>
+      </c>
+      <c r="N32">
+        <v>22.415874</v>
+      </c>
+      <c r="O32">
+        <v>0.7493826233921622</v>
+      </c>
+      <c r="P32">
+        <v>0.7493826233921622</v>
+      </c>
+      <c r="Q32">
+        <v>1697.056109603426</v>
+      </c>
+      <c r="R32">
+        <v>15273.50498643084</v>
+      </c>
+      <c r="S32">
+        <v>0.09678986088426614</v>
+      </c>
+      <c r="T32">
+        <v>0.09678986088426614</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>227.123347</v>
+      </c>
+      <c r="H33">
+        <v>681.370041</v>
+      </c>
+      <c r="I33">
+        <v>0.1291594678912306</v>
+      </c>
+      <c r="J33">
+        <v>0.1291594678912306</v>
+      </c>
+      <c r="K33">
+        <v>2</v>
+      </c>
+      <c r="L33">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M33">
+        <v>0.125446</v>
+      </c>
+      <c r="N33">
+        <v>0.376338</v>
+      </c>
+      <c r="O33">
+        <v>0.01258131437222388</v>
+      </c>
+      <c r="P33">
+        <v>0.01258131437222388</v>
+      </c>
+      <c r="Q33">
+        <v>28.491715387762</v>
+      </c>
+      <c r="R33">
+        <v>256.425438489858</v>
+      </c>
+      <c r="S33">
+        <v>0.001624995869688728</v>
+      </c>
+      <c r="T33">
+        <v>0.001624995869688728</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>227.123347</v>
+      </c>
+      <c r="H34">
+        <v>681.370041</v>
+      </c>
+      <c r="I34">
+        <v>0.1291594678912306</v>
+      </c>
+      <c r="J34">
+        <v>0.1291594678912306</v>
+      </c>
+      <c r="K34">
+        <v>2</v>
+      </c>
+      <c r="L34">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M34">
+        <v>0.148662</v>
+      </c>
+      <c r="N34">
+        <v>0.445986</v>
+      </c>
+      <c r="O34">
+        <v>0.01490970901585978</v>
+      </c>
+      <c r="P34">
+        <v>0.01490970901585978</v>
+      </c>
+      <c r="Q34">
+        <v>33.764611011714</v>
+      </c>
+      <c r="R34">
+        <v>303.881499105426</v>
+      </c>
+      <c r="S34">
+        <v>0.001925730082901533</v>
+      </c>
+      <c r="T34">
+        <v>0.001925730082901533</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>227.123347</v>
+      </c>
+      <c r="H35">
+        <v>681.370041</v>
+      </c>
+      <c r="I35">
+        <v>0.1291594678912306</v>
+      </c>
+      <c r="J35">
+        <v>0.1291594678912306</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M35">
+        <v>0.01595966666666667</v>
+      </c>
+      <c r="N35">
+        <v>0.047879</v>
+      </c>
+      <c r="O35">
+        <v>0.001600637593938712</v>
+      </c>
+      <c r="P35">
+        <v>0.001600637593938712</v>
+      </c>
+      <c r="Q35">
+        <v>3.624812910337667</v>
+      </c>
+      <c r="R35">
+        <v>32.623316193039</v>
+      </c>
+      <c r="S35">
+        <v>0.0002067374999198237</v>
+      </c>
+      <c r="T35">
+        <v>0.0002067374999198237</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
         <v>24</v>
       </c>
-      <c r="E31">
-        <v>3</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>147.9815903333333</v>
-      </c>
-      <c r="H31">
-        <v>443.9447709999999</v>
-      </c>
-      <c r="I31">
-        <v>0.1160953453549051</v>
-      </c>
-      <c r="J31">
-        <v>0.1160953453549051</v>
-      </c>
-      <c r="K31">
-        <v>3</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>2.040985</v>
-      </c>
-      <c r="N31">
-        <v>6.122955</v>
-      </c>
-      <c r="O31">
-        <v>0.1855978805493811</v>
-      </c>
-      <c r="P31">
-        <v>0.1855978805493811</v>
-      </c>
-      <c r="Q31">
-        <v>302.0282061464783</v>
-      </c>
-      <c r="R31">
-        <v>2718.253855318305</v>
-      </c>
-      <c r="S31">
-        <v>0.02154705003951882</v>
-      </c>
-      <c r="T31">
-        <v>0.02154705003951882</v>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>227.123347</v>
+      </c>
+      <c r="H36">
+        <v>681.370041</v>
+      </c>
+      <c r="I36">
+        <v>0.1291594678912306</v>
+      </c>
+      <c r="J36">
+        <v>0.1291594678912306</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>2.145887333333333</v>
+      </c>
+      <c r="N36">
+        <v>6.437662</v>
+      </c>
+      <c r="O36">
+        <v>0.2152167717427406</v>
+      </c>
+      <c r="P36">
+        <v>0.2152167717427406</v>
+      </c>
+      <c r="Q36">
+        <v>487.3811134315712</v>
+      </c>
+      <c r="R36">
+        <v>4386.430020884141</v>
+      </c>
+      <c r="S36">
+        <v>0.02779728371956081</v>
+      </c>
+      <c r="T36">
+        <v>0.02779728371956081</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>227.123347</v>
+      </c>
+      <c r="H37">
+        <v>681.370041</v>
+      </c>
+      <c r="I37">
+        <v>0.1291594678912306</v>
+      </c>
+      <c r="J37">
+        <v>0.1291594678912306</v>
+      </c>
+      <c r="K37">
+        <v>1</v>
+      </c>
+      <c r="L37">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M37">
+        <v>0.06290533333333333</v>
+      </c>
+      <c r="N37">
+        <v>0.188716</v>
+      </c>
+      <c r="O37">
+        <v>0.006308943883074792</v>
+      </c>
+      <c r="P37">
+        <v>0.006308943883074792</v>
+      </c>
+      <c r="Q37">
+        <v>14.28726985081733</v>
+      </c>
+      <c r="R37">
+        <v>128.585428657356</v>
+      </c>
+      <c r="S37">
+        <v>0.0008148598348935744</v>
+      </c>
+      <c r="T37">
+        <v>0.0008148598348935744</v>
       </c>
     </row>
   </sheetData>
